--- a/cadeiras/linguagens-formais-e-automatos/Presenças/presencas.xlsx
+++ b/cadeiras/linguagens-formais-e-automatos/Presenças/presencas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\3 ano\Semestre_2\Repositório\ISD3A\cadeiras\linguagens-formais-e-automatos\Presenças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88361B-742D-4CD6-B76B-30FBE30A8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B75917-E92D-4255-BCFD-3E564D2268A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presenças" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Nome do Estudante</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Fahim Jamal</t>
+  </si>
+  <si>
+    <t>Paulo Timane</t>
   </si>
 </sst>
 </file>
@@ -266,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Presencas" displayName="Presencas" ref="A1:AS8">
-  <autoFilter ref="A1:AS8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Presencas" displayName="Presencas" ref="A1:AS9">
+  <autoFilter ref="A1:AS9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome do Estudante"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="04-08-2025" dataDxfId="0"/>
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,6 +939,12 @@
       </c>
       <c r="B8" s="1"/>
     </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
